--- a/FLow calcualtion Jhimruk_andhi/Jhimruk Mean Monthly flow_comparison.xlsx
+++ b/FLow calcualtion Jhimruk_andhi/Jhimruk Mean Monthly flow_comparison.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andhi Khola and Jhimruk\Andhikhola_working\Dscreen\average flows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andhi Khola and Jhimruk\02Jhimruk_working\Jhimruk\FLow calcualtion Jhimruk_andhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620" tabRatio="760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620" tabRatio="760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All Months" sheetId="1" r:id="rId1"/>
@@ -2796,6 +2796,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5066,6 +5067,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5121,6 +5123,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -5506,10 +5509,11 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:endParaRPr/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7811,16 +7815,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8564,8 +8568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:U13"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11846,8 +11850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
